--- a/pro-ctcae/docs/TestDocs/Questions_Response.xlsx
+++ b/pro-ctcae/docs/TestDocs/Questions_Response.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="14355" windowHeight="4620" tabRatio="533"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="14355" windowHeight="4620" tabRatio="533" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PROCTCAE-All terms" sheetId="2" r:id="rId1"/>
     <sheet name="Sample Form" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Missing Spanish Response Term " sheetId="4" r:id="rId3"/>
+    <sheet name="Missing Spanish Question" sheetId="5" r:id="rId4"/>
+    <sheet name="Missing Spanish PRO-CTCAE Term" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="271">
   <si>
     <t>Frequently</t>
   </si>
@@ -2279,6 +2281,78 @@
   <si>
     <t>Not applicable (not present in spanish) 
 PRKC-1025</t>
+  </si>
+  <si>
+    <t>English Response</t>
+  </si>
+  <si>
+    <t>What was the SEVERITY of your TREMORS at their worst</t>
+  </si>
+  <si>
+    <t>None,Mild,Moderate,Severe,Very Severe</t>
+  </si>
+  <si>
+    <t>How often do you have TREMORS</t>
+  </si>
+  <si>
+    <t>Never,Rarely,Occasionally,Frequently,Almost Constantly</t>
+  </si>
+  <si>
+    <t>Were there times when you had to URINATE  FREQUENTLY</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>How much did FREQUENT URINATION INTERFERE with your usual or daily activities</t>
+  </si>
+  <si>
+    <t>Question_ID</t>
+  </si>
+  <si>
+    <t>How OFTEN did you have LOOSE OR WATERY STOOLS (DIARRHEA)</t>
+  </si>
+  <si>
+    <t>How OFTEN did you have LOSS OF CONTROL OF URINE (LEAKAGE)</t>
+  </si>
+  <si>
+    <t>How much did LOSS OF CONTROL OF URINE (LEAKAGE) INTERFERE with your usual or daily activities</t>
+  </si>
+  <si>
+    <t>What was the SEVERITY of your SKIN BURNS FROM RADIATION at their WORST</t>
+  </si>
+  <si>
+    <t>How OFTEN did you feel an URGE TO URINATE ALL OF A SUDDEN</t>
+  </si>
+  <si>
+    <t>How much did SUDDEN URGES TO URINATE INTERFERE with your usual or daily activities</t>
+  </si>
+  <si>
+    <t>Question in English</t>
+  </si>
+  <si>
+    <t>Question in Spanish</t>
+  </si>
+  <si>
+    <t>Question id</t>
+  </si>
+  <si>
+    <t>How OFTEN did you have TREMORS</t>
+  </si>
+  <si>
+    <t>What was the SEVERITY of your TREMORS at their WORST</t>
+  </si>
+  <si>
+    <t>PRO-CTCAE Term in english</t>
+  </si>
+  <si>
+    <t>PRO-CTCAE Term in Spanish</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Tremors</t>
   </si>
 </sst>
 </file>
@@ -2330,7 +2404,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2355,6 +2429,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2368,7 +2448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2397,9 +2477,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2417,6 +2494,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2426,13 +2510,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2453,7 +2534,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11C-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2481,7 +2562,7 @@
 </file>
 
 <file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11C-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2495,15 +2576,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>2241</xdr:colOff>
           <xdr:row>108</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>914400</xdr:colOff>
+          <xdr:colOff>783291</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2535,16 +2616,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>120</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>4345641</xdr:colOff>
+          <xdr:row>119</xdr:row>
+          <xdr:rowOff>447115</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>216834</xdr:colOff>
           <xdr:row>120</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>227479</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2576,16 +2657,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>120</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>4345641</xdr:colOff>
+          <xdr:row>119</xdr:row>
+          <xdr:rowOff>447115</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>216834</xdr:colOff>
           <xdr:row>120</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>227479</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2617,16 +2698,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>120</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>4345641</xdr:colOff>
+          <xdr:row>119</xdr:row>
+          <xdr:rowOff>447115</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>216834</xdr:colOff>
           <xdr:row>120</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>227479</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2658,16 +2739,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>120</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>4345641</xdr:colOff>
+          <xdr:row>119</xdr:row>
+          <xdr:rowOff>447115</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>216834</xdr:colOff>
           <xdr:row>120</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>227479</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2699,16 +2780,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>120</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>4345641</xdr:colOff>
+          <xdr:row>119</xdr:row>
+          <xdr:rowOff>447115</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>216834</xdr:colOff>
           <xdr:row>120</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>227479</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2740,16 +2821,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>120</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>4345641</xdr:colOff>
+          <xdr:row>119</xdr:row>
+          <xdr:rowOff>447115</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>216834</xdr:colOff>
           <xdr:row>120</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>227479</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2781,16 +2862,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>120</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>4345641</xdr:colOff>
+          <xdr:row>119</xdr:row>
+          <xdr:rowOff>447115</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>216834</xdr:colOff>
           <xdr:row>120</xdr:row>
-          <xdr:rowOff>266700</xdr:rowOff>
+          <xdr:rowOff>227479</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3157,7 +3238,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AA127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
@@ -3170,7 +3251,7 @@
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="19" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" customWidth="1"/>
@@ -3188,58 +3269,58 @@
     <col min="26" max="26" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="22" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:27" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="J1" s="24" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
+      <c r="J1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="27" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="23" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3310,7 +3391,7 @@
       <c r="Z2" t="s">
         <v>240</v>
       </c>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="24" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3369,7 +3450,7 @@
       <c r="V3" t="s">
         <v>210</v>
       </c>
-      <c r="X3" s="28" t="s">
+      <c r="X3" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3428,7 +3509,7 @@
       <c r="V4" t="s">
         <v>210</v>
       </c>
-      <c r="X4" s="28" t="s">
+      <c r="X4" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3487,7 +3568,7 @@
       <c r="V5" t="s">
         <v>210</v>
       </c>
-      <c r="X5" s="28" t="s">
+      <c r="X5" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3546,7 +3627,7 @@
       <c r="V6" t="s">
         <v>210</v>
       </c>
-      <c r="X6" s="28" t="s">
+      <c r="X6" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3587,7 +3668,7 @@
       <c r="V7" t="s">
         <v>210</v>
       </c>
-      <c r="X7" s="28" t="s">
+      <c r="X7" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3628,7 +3709,7 @@
       <c r="V8" t="s">
         <v>210</v>
       </c>
-      <c r="X8" s="28" t="s">
+      <c r="X8" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3687,7 +3768,7 @@
       <c r="V9" t="s">
         <v>210</v>
       </c>
-      <c r="X9" s="28" t="s">
+      <c r="X9" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3746,7 +3827,7 @@
       <c r="V10" t="s">
         <v>210</v>
       </c>
-      <c r="X10" s="28" t="s">
+      <c r="X10" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3805,7 +3886,7 @@
       <c r="V11" t="s">
         <v>210</v>
       </c>
-      <c r="X11" s="28" t="s">
+      <c r="X11" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3864,7 +3945,7 @@
       <c r="V12" t="s">
         <v>210</v>
       </c>
-      <c r="X12" s="28" t="s">
+      <c r="X12" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3923,7 +4004,7 @@
       <c r="V13" t="s">
         <v>210</v>
       </c>
-      <c r="X13" s="28" t="s">
+      <c r="X13" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3982,7 +4063,7 @@
       <c r="V14" t="s">
         <v>210</v>
       </c>
-      <c r="X14" s="28" t="s">
+      <c r="X14" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4041,7 +4122,7 @@
       <c r="V15" t="s">
         <v>210</v>
       </c>
-      <c r="X15" s="28" t="s">
+      <c r="X15" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4100,7 +4181,7 @@
       <c r="V16" t="s">
         <v>210</v>
       </c>
-      <c r="X16" s="28" t="s">
+      <c r="X16" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4159,7 +4240,7 @@
       <c r="V17" t="s">
         <v>210</v>
       </c>
-      <c r="X17" s="28" t="s">
+      <c r="X17" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4200,7 +4281,7 @@
       <c r="V18" t="s">
         <v>210</v>
       </c>
-      <c r="X18" s="28" t="s">
+      <c r="X18" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4244,7 +4325,7 @@
       <c r="N19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="O19" s="17" t="s">
+      <c r="O19" s="16" t="s">
         <v>104</v>
       </c>
       <c r="Q19" t="s">
@@ -4265,7 +4346,7 @@
       <c r="V19" t="s">
         <v>210</v>
       </c>
-      <c r="X19" s="28" t="s">
+      <c r="X19" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4330,7 +4411,7 @@
       <c r="V20" t="s">
         <v>210</v>
       </c>
-      <c r="X20" s="28" t="s">
+      <c r="X20" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4395,7 +4476,7 @@
       <c r="V21" t="s">
         <v>210</v>
       </c>
-      <c r="X21" s="28" t="s">
+      <c r="X21" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4454,7 +4535,7 @@
       <c r="V22" t="s">
         <v>210</v>
       </c>
-      <c r="X22" s="28" t="s">
+      <c r="X22" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4513,7 +4594,7 @@
       <c r="V23" t="s">
         <v>210</v>
       </c>
-      <c r="X23" s="28" t="s">
+      <c r="X23" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4572,7 +4653,7 @@
       <c r="V24" t="s">
         <v>210</v>
       </c>
-      <c r="X24" s="28" t="s">
+      <c r="X24" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4631,7 +4712,7 @@
       <c r="V25" t="s">
         <v>210</v>
       </c>
-      <c r="X25" s="28" t="s">
+      <c r="X25" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4690,7 +4771,7 @@
       <c r="V26" t="s">
         <v>210</v>
       </c>
-      <c r="X26" s="28" t="s">
+      <c r="X26" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4749,7 +4830,7 @@
       <c r="V27" t="s">
         <v>210</v>
       </c>
-      <c r="X27" s="28" t="s">
+      <c r="X27" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4775,7 +4856,7 @@
       <c r="G28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="21"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="13" t="s">
         <v>83</v>
       </c>
@@ -4809,7 +4890,7 @@
       <c r="V28" t="s">
         <v>210</v>
       </c>
-      <c r="X28" s="28" t="s">
+      <c r="X28" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4868,7 +4949,7 @@
       <c r="V29" t="s">
         <v>210</v>
       </c>
-      <c r="X29" s="28" t="s">
+      <c r="X29" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4927,7 +5008,7 @@
       <c r="V30" t="s">
         <v>210</v>
       </c>
-      <c r="X30" s="28" t="s">
+      <c r="X30" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4986,7 +5067,7 @@
       <c r="V31" t="s">
         <v>210</v>
       </c>
-      <c r="X31" s="28" t="s">
+      <c r="X31" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5045,7 +5126,7 @@
       <c r="V32" t="s">
         <v>210</v>
       </c>
-      <c r="X32" s="28" t="s">
+      <c r="X32" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5104,7 +5185,7 @@
       <c r="V33" t="s">
         <v>210</v>
       </c>
-      <c r="X33" s="28" t="s">
+      <c r="X33" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5163,7 +5244,7 @@
       <c r="V34" t="s">
         <v>210</v>
       </c>
-      <c r="X34" s="28" t="s">
+      <c r="X34" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5222,7 +5303,7 @@
       <c r="V35" t="s">
         <v>210</v>
       </c>
-      <c r="X35" s="28" t="s">
+      <c r="X35" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5281,7 +5362,7 @@
       <c r="V36" t="s">
         <v>210</v>
       </c>
-      <c r="X36" s="28" t="s">
+      <c r="X36" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5340,7 +5421,7 @@
       <c r="V37" t="s">
         <v>210</v>
       </c>
-      <c r="X37" s="28" t="s">
+      <c r="X37" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5399,7 +5480,7 @@
       <c r="V38" t="s">
         <v>210</v>
       </c>
-      <c r="X38" s="28" t="s">
+      <c r="X38" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5446,7 +5527,7 @@
       <c r="V39" t="s">
         <v>210</v>
       </c>
-      <c r="X39" s="28" t="s">
+      <c r="X39" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5505,7 +5586,7 @@
       <c r="V40" t="s">
         <v>210</v>
       </c>
-      <c r="X40" s="28" t="s">
+      <c r="X40" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5564,7 +5645,7 @@
       <c r="V41" t="s">
         <v>210</v>
       </c>
-      <c r="X41" s="28" t="s">
+      <c r="X41" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5605,7 +5686,7 @@
       <c r="V42" t="s">
         <v>210</v>
       </c>
-      <c r="X42" s="28" t="s">
+      <c r="X42" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5667,7 +5748,7 @@
       <c r="V43" t="s">
         <v>210</v>
       </c>
-      <c r="X43" s="28" t="s">
+      <c r="X43" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5726,7 +5807,7 @@
       <c r="V44" t="s">
         <v>210</v>
       </c>
-      <c r="X44" s="28" t="s">
+      <c r="X44" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5785,7 +5866,7 @@
       <c r="V45" t="s">
         <v>210</v>
       </c>
-      <c r="X45" s="28" t="s">
+      <c r="X45" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5844,7 +5925,7 @@
       <c r="V46" t="s">
         <v>210</v>
       </c>
-      <c r="X46" s="28" t="s">
+      <c r="X46" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5903,7 +5984,7 @@
       <c r="V47" t="s">
         <v>210</v>
       </c>
-      <c r="X47" s="28" t="s">
+      <c r="X47" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5962,7 +6043,7 @@
       <c r="V48" t="s">
         <v>210</v>
       </c>
-      <c r="X48" s="28" t="s">
+      <c r="X48" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6021,7 +6102,7 @@
       <c r="V49" t="s">
         <v>210</v>
       </c>
-      <c r="X49" s="28" t="s">
+      <c r="X49" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6080,7 +6161,7 @@
       <c r="V50" t="s">
         <v>210</v>
       </c>
-      <c r="X50" s="28" t="s">
+      <c r="X50" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6139,7 +6220,7 @@
       <c r="V51" t="s">
         <v>210</v>
       </c>
-      <c r="X51" s="28" t="s">
+      <c r="X51" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6198,7 +6279,7 @@
       <c r="V52" t="s">
         <v>210</v>
       </c>
-      <c r="X52" s="28" t="s">
+      <c r="X52" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6257,7 +6338,7 @@
       <c r="V53" t="s">
         <v>210</v>
       </c>
-      <c r="X53" s="28" t="s">
+      <c r="X53" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6316,7 +6397,7 @@
       <c r="V54" t="s">
         <v>210</v>
       </c>
-      <c r="X54" s="28" t="s">
+      <c r="X54" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6375,7 +6456,7 @@
       <c r="V55" t="s">
         <v>210</v>
       </c>
-      <c r="X55" s="28" t="s">
+      <c r="X55" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6434,7 +6515,7 @@
       <c r="V56" t="s">
         <v>210</v>
       </c>
-      <c r="X56" s="28" t="s">
+      <c r="X56" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6493,7 +6574,7 @@
       <c r="V57" t="s">
         <v>210</v>
       </c>
-      <c r="X57" s="28" t="s">
+      <c r="X57" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6552,7 +6633,7 @@
       <c r="V58" t="s">
         <v>210</v>
       </c>
-      <c r="X58" s="28" t="s">
+      <c r="X58" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6611,7 +6692,7 @@
       <c r="V59" t="s">
         <v>210</v>
       </c>
-      <c r="X59" s="28" t="s">
+      <c r="X59" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6670,7 +6751,7 @@
       <c r="V60" t="s">
         <v>210</v>
       </c>
-      <c r="X60" s="28" t="s">
+      <c r="X60" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6717,7 +6798,7 @@
       <c r="V61" t="s">
         <v>210</v>
       </c>
-      <c r="X61" s="28" t="s">
+      <c r="X61" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6764,7 +6845,7 @@
       <c r="V62" t="s">
         <v>210</v>
       </c>
-      <c r="X62" s="28" t="s">
+      <c r="X62" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6823,7 +6904,7 @@
       <c r="V63" t="s">
         <v>210</v>
       </c>
-      <c r="X63" s="28" t="s">
+      <c r="X63" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6882,7 +6963,7 @@
       <c r="V64" t="s">
         <v>210</v>
       </c>
-      <c r="X64" s="28" t="s">
+      <c r="X64" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6941,7 +7022,7 @@
       <c r="V65" t="s">
         <v>210</v>
       </c>
-      <c r="X65" s="28" t="s">
+      <c r="X65" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7000,7 +7081,7 @@
       <c r="V66" t="s">
         <v>210</v>
       </c>
-      <c r="X66" s="28" t="s">
+      <c r="X66" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7059,7 +7140,7 @@
       <c r="V67" t="s">
         <v>210</v>
       </c>
-      <c r="X67" s="28" t="s">
+      <c r="X67" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7118,7 +7199,7 @@
       <c r="V68" t="s">
         <v>210</v>
       </c>
-      <c r="X68" s="28" t="s">
+      <c r="X68" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7177,7 +7258,7 @@
       <c r="V69" t="s">
         <v>210</v>
       </c>
-      <c r="X69" s="28" t="s">
+      <c r="X69" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7236,7 +7317,7 @@
       <c r="V70" t="s">
         <v>210</v>
       </c>
-      <c r="X70" s="28" t="s">
+      <c r="X70" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7295,7 +7376,7 @@
       <c r="V71" t="s">
         <v>210</v>
       </c>
-      <c r="X71" s="28" t="s">
+      <c r="X71" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7348,7 +7429,7 @@
       <c r="V72" t="s">
         <v>210</v>
       </c>
-      <c r="X72" s="28" t="s">
+      <c r="X72" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7407,7 +7488,7 @@
       <c r="V73" t="s">
         <v>210</v>
       </c>
-      <c r="X73" s="28" t="s">
+      <c r="X73" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7466,7 +7547,7 @@
       <c r="V74" t="s">
         <v>210</v>
       </c>
-      <c r="X74" s="28" t="s">
+      <c r="X74" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7525,7 +7606,7 @@
       <c r="V75" t="s">
         <v>210</v>
       </c>
-      <c r="X75" s="28" t="s">
+      <c r="X75" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7578,7 +7659,7 @@
       <c r="V76" t="s">
         <v>210</v>
       </c>
-      <c r="X76" s="28" t="s">
+      <c r="X76" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7622,7 +7703,7 @@
       <c r="N77" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="O77" s="18" t="s">
+      <c r="O77" s="17" t="s">
         <v>246</v>
       </c>
       <c r="Q77" t="s">
@@ -7640,7 +7721,7 @@
       <c r="V77" t="s">
         <v>210</v>
       </c>
-      <c r="X77" s="28" t="s">
+      <c r="X77" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7684,7 +7765,7 @@
       <c r="N78" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="O78" s="18" t="s">
+      <c r="O78" s="17" t="s">
         <v>246</v>
       </c>
       <c r="Q78" t="s">
@@ -7705,7 +7786,7 @@
       <c r="V78" t="s">
         <v>210</v>
       </c>
-      <c r="X78" s="28" t="s">
+      <c r="X78" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7749,7 +7830,7 @@
       <c r="N79" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="O79" s="18" t="s">
+      <c r="O79" s="17" t="s">
         <v>104</v>
       </c>
       <c r="Q79" t="s">
@@ -7770,7 +7851,7 @@
       <c r="V79" t="s">
         <v>210</v>
       </c>
-      <c r="X79" s="28" t="s">
+      <c r="X79" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7814,7 +7895,7 @@
       <c r="N80" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="O80" s="18" t="s">
+      <c r="O80" s="17" t="s">
         <v>104</v>
       </c>
       <c r="Q80" t="s">
@@ -7835,7 +7916,7 @@
       <c r="V80" t="s">
         <v>210</v>
       </c>
-      <c r="X80" s="28" t="s">
+      <c r="X80" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7900,7 +7981,7 @@
       <c r="V81" t="s">
         <v>210</v>
       </c>
-      <c r="X81" s="28" t="s">
+      <c r="X81" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7944,7 +8025,7 @@
       <c r="N82" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="O82" s="19" t="s">
+      <c r="O82" s="18" t="s">
         <v>104</v>
       </c>
       <c r="Q82" t="s">
@@ -7965,7 +8046,7 @@
       <c r="V82" t="s">
         <v>210</v>
       </c>
-      <c r="X82" s="28" t="s">
+      <c r="X82" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8009,7 +8090,7 @@
       <c r="N83" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="O83" s="19" t="s">
+      <c r="O83" s="18" t="s">
         <v>104</v>
       </c>
       <c r="Q83" t="s">
@@ -8030,7 +8111,7 @@
       <c r="V83" t="s">
         <v>210</v>
       </c>
-      <c r="X83" s="28" t="s">
+      <c r="X83" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8071,7 +8152,7 @@
       <c r="V84" t="s">
         <v>210</v>
       </c>
-      <c r="X84" s="28" t="s">
+      <c r="X84" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8130,7 +8211,7 @@
       <c r="V85" t="s">
         <v>210</v>
       </c>
-      <c r="X85" s="28" t="s">
+      <c r="X85" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8189,7 +8270,7 @@
       <c r="V86" t="s">
         <v>210</v>
       </c>
-      <c r="X86" s="28" t="s">
+      <c r="X86" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8248,7 +8329,7 @@
       <c r="V87" t="s">
         <v>210</v>
       </c>
-      <c r="X87" s="28" t="s">
+      <c r="X87" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8307,7 +8388,7 @@
       <c r="V88" t="s">
         <v>210</v>
       </c>
-      <c r="X88" s="28" t="s">
+      <c r="X88" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8366,7 +8447,7 @@
       <c r="V89" t="s">
         <v>210</v>
       </c>
-      <c r="X89" s="28" t="s">
+      <c r="X89" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8425,7 +8506,7 @@
       <c r="V90" t="s">
         <v>210</v>
       </c>
-      <c r="X90" s="28" t="s">
+      <c r="X90" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8484,7 +8565,7 @@
       <c r="V91" t="s">
         <v>210</v>
       </c>
-      <c r="X91" s="28" t="s">
+      <c r="X91" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8543,7 +8624,7 @@
       <c r="V92" t="s">
         <v>210</v>
       </c>
-      <c r="X92" s="28" t="s">
+      <c r="X92" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8602,7 +8683,7 @@
       <c r="V93" t="s">
         <v>210</v>
       </c>
-      <c r="X93" s="28" t="s">
+      <c r="X93" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8661,7 +8742,7 @@
       <c r="V94" t="s">
         <v>210</v>
       </c>
-      <c r="X94" s="28" t="s">
+      <c r="X94" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8702,7 +8783,7 @@
       <c r="V95" t="s">
         <v>210</v>
       </c>
-      <c r="X95" s="28" t="s">
+      <c r="X95" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8761,7 +8842,7 @@
       <c r="V96" t="s">
         <v>210</v>
       </c>
-      <c r="X96" s="28" t="s">
+      <c r="X96" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8820,7 +8901,7 @@
       <c r="V97" t="s">
         <v>210</v>
       </c>
-      <c r="X97" s="28" t="s">
+      <c r="X97" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8861,7 +8942,7 @@
       <c r="V98" t="s">
         <v>210</v>
       </c>
-      <c r="X98" s="28" t="s">
+      <c r="X98" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8920,7 +9001,7 @@
       <c r="V99" t="s">
         <v>210</v>
       </c>
-      <c r="X99" s="28" t="s">
+      <c r="X99" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8961,7 +9042,7 @@
       <c r="V100" t="s">
         <v>210</v>
       </c>
-      <c r="X100" s="28" t="s">
+      <c r="X100" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9002,7 +9083,7 @@
       <c r="V101" t="s">
         <v>210</v>
       </c>
-      <c r="X101" s="28" t="s">
+      <c r="X101" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9061,7 +9142,7 @@
       <c r="V102" t="s">
         <v>210</v>
       </c>
-      <c r="X102" s="28" t="s">
+      <c r="X102" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9120,7 +9201,7 @@
       <c r="V103" t="s">
         <v>210</v>
       </c>
-      <c r="X103" s="28" t="s">
+      <c r="X103" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9179,7 +9260,7 @@
       <c r="V104" t="s">
         <v>210</v>
       </c>
-      <c r="X104" s="28" t="s">
+      <c r="X104" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9220,7 +9301,7 @@
       <c r="V105" t="s">
         <v>210</v>
       </c>
-      <c r="X105" s="28" t="s">
+      <c r="X105" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9261,7 +9342,7 @@
       <c r="V106" t="s">
         <v>210</v>
       </c>
-      <c r="X106" s="28" t="s">
+      <c r="X106" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9320,7 +9401,7 @@
       <c r="V107" t="s">
         <v>210</v>
       </c>
-      <c r="X107" s="28" t="s">
+      <c r="X107" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9361,7 +9442,7 @@
       <c r="V108" t="s">
         <v>210</v>
       </c>
-      <c r="X108" s="28" t="s">
+      <c r="X108" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9402,7 +9483,7 @@
       <c r="V109" t="s">
         <v>210</v>
       </c>
-      <c r="X109" s="28" t="s">
+      <c r="X109" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9443,7 +9524,7 @@
       <c r="V110" t="s">
         <v>210</v>
       </c>
-      <c r="X110" s="28" t="s">
+      <c r="X110" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9502,7 +9583,7 @@
       <c r="V111" t="s">
         <v>210</v>
       </c>
-      <c r="X111" s="28" t="s">
+      <c r="X111" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9543,7 +9624,7 @@
       <c r="V112" t="s">
         <v>210</v>
       </c>
-      <c r="X112" s="28" t="s">
+      <c r="X112" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9602,7 +9683,7 @@
       <c r="V113" t="s">
         <v>210</v>
       </c>
-      <c r="X113" s="28" t="s">
+      <c r="X113" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9661,7 +9742,7 @@
       <c r="V114" t="s">
         <v>210</v>
       </c>
-      <c r="X114" s="28" t="s">
+      <c r="X114" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9702,7 +9783,7 @@
       <c r="V115" t="s">
         <v>210</v>
       </c>
-      <c r="X115" s="28" t="s">
+      <c r="X115" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9761,7 +9842,7 @@
       <c r="V116" t="s">
         <v>210</v>
       </c>
-      <c r="X116" s="28" t="s">
+      <c r="X116" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9820,21 +9901,21 @@
       <c r="V117" t="s">
         <v>210</v>
       </c>
-      <c r="X117" s="28" t="s">
+      <c r="X117" s="24" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="X118" s="28"/>
+      <c r="X118" s="24"/>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="X119" s="28"/>
+      <c r="X119" s="24"/>
     </row>
     <row r="120" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="X120" s="28"/>
+      <c r="X120" s="24"/>
     </row>
     <row r="121" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A121">
@@ -9861,10 +9942,10 @@
       <c r="H121" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="I121" s="20" t="s">
+      <c r="I121" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L121" s="29" t="s">
+      <c r="L121" s="25" t="s">
         <v>245</v>
       </c>
       <c r="Q121" t="s">
@@ -9885,7 +9966,7 @@
       <c r="V121" t="s">
         <v>224</v>
       </c>
-      <c r="X121" s="28" t="s">
+      <c r="X121" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9932,7 +10013,7 @@
       <c r="V122" t="s">
         <v>224</v>
       </c>
-      <c r="X122" s="28" t="s">
+      <c r="X122" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9971,7 +10052,7 @@
       <c r="V123" t="s">
         <v>224</v>
       </c>
-      <c r="X123" s="28" t="s">
+      <c r="X123" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -10010,7 +10091,7 @@
       <c r="V124" t="s">
         <v>224</v>
       </c>
-      <c r="X124" s="28" t="s">
+      <c r="X124" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -10039,7 +10120,7 @@
       <c r="H125" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="I125" s="20" t="s">
+      <c r="I125" s="19" t="s">
         <v>29</v>
       </c>
       <c r="Q125" t="s">
@@ -10060,7 +10141,7 @@
       <c r="V125" t="s">
         <v>224</v>
       </c>
-      <c r="X125" s="28" t="s">
+      <c r="X125" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -10104,7 +10185,7 @@
       <c r="V126" t="s">
         <v>224</v>
       </c>
-      <c r="X126" s="28" t="s">
+      <c r="X126" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -10148,7 +10229,7 @@
       <c r="V127" t="s">
         <v>224</v>
       </c>
-      <c r="X127" s="28" t="s">
+      <c r="X127" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -10164,8 +10245,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId4" name="Control 9">
+        <control shapeId="2049" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>781050</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId4" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId6" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -10175,22 +10281,22 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>120</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2057" r:id="rId4" name="Control 9"/>
+        <control shapeId="2051" r:id="rId6" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId6" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="2052" r:id="rId8" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -10200,22 +10306,22 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>120</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2056" r:id="rId6" name="Control 8"/>
+        <control shapeId="2052" r:id="rId8" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId7" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="2053" r:id="rId10" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -10225,22 +10331,22 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>120</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2055" r:id="rId7" name="Control 7"/>
+        <control shapeId="2053" r:id="rId10" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId8" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="2054" r:id="rId11" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -10250,22 +10356,22 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>120</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId8" name="Control 6"/>
+        <control shapeId="2054" r:id="rId11" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId9" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="2055" r:id="rId12" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -10275,22 +10381,22 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>120</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2053" r:id="rId9" name="Control 5"/>
+        <control shapeId="2055" r:id="rId12" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId10" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="2056" r:id="rId13" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -10300,22 +10406,22 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>120</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2052" r:id="rId10" name="Control 4"/>
+        <control shapeId="2056" r:id="rId13" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId11" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId12">
+        <control shapeId="2057" r:id="rId14" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -10325,33 +10431,8 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>120</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId11" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId13" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>108</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>108</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -10359,7 +10440,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId13" name="Control 1"/>
+        <control shapeId="2057" r:id="rId14" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10371,7 +10452,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -10391,15 +10472,15 @@
       <c r="B1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
       <c r="J1" t="s">
         <v>65</v>
       </c>
@@ -11145,17 +11226,232 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="90.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>44</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>61</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>65</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>66</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>103</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>110</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>111</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>